--- a/PHONE BOOK.xlsx
+++ b/PHONE BOOK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\shadab\JAFURAPHASEII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C890DD95-8528-4F0F-B472-2608609F0028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6D61E1-A39E-4526-BD08-29872DBD540E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E4DB8C6D-8346-4ADA-8FD3-75E344CE233D}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{E4DB8C6D-8346-4ADA-8FD3-75E344CE233D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>phone book</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>ANSAR</t>
+  </si>
+  <si>
+    <t>SHADAB ALAM KHNAN</t>
+  </si>
+  <si>
+    <t>JOSHAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DULICAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -104,10 +119,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,32 +437,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B513653-ACAB-412C-A363-ADAD8CB3A6CC}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
     <col min="2" max="2" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -481,6 +496,43 @@
       </c>
       <c r="B6">
         <v>570093349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>537359446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>573543502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>501727819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>538626897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
